--- a/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.12.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.12.xlsx
@@ -49,126 +49,126 @@
     <t>בסדר.</t>
   </si>
   <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יש לנו שם מכתב שחרור?</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>אנחנו רוצים ללכת.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>כבר, כבר תשבי.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>אנחנו כבר כל כך הרבה.</t>
+  </si>
+  <si>
+    <t>נעים מאוד דוקטור דוק</t>
+  </si>
+  <si>
+    <t>מה שמך?</t>
+  </si>
+  <si>
+    <t>איך?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>דוק, שלום.</t>
+  </si>
+  <si>
+    <t>אה יעל.</t>
+  </si>
+  <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t>אימא של יואב.</t>
+  </si>
+  <si>
+    <t>יואב.</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אנחנו רוצים אההה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אנחנו כבר הרבה שעות פה </t>
+  </si>
+  <si>
+    <t>הילד כבר נראה בסדר</t>
+  </si>
+  <si>
+    <t>(לא ברור)</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוקי קודם כל איך את מרגישה </t>
+  </si>
+  <si>
+    <t>הכול בסדר?</t>
+  </si>
+  <si>
+    <t>בסדר,</t>
+  </si>
+  <si>
+    <t>כן אנחנו רוצים ללכת כבר מפה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (לא ברור) לשכב פה על המיטה (לא ברור).</t>
+  </si>
+  <si>
+    <t>קודם כל זה ייקח קצת זמן, ייקח יותר זמן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה כן? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">למה הוא כבר בסדר גמור </t>
+  </si>
+  <si>
+    <t>תביא לי אנטיביוטיקה.</t>
+  </si>
+  <si>
+    <t>?service</t>
+  </si>
+  <si>
+    <t>נכון הוא מרגיש יותר טוב</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> וזה טוב</t>
+  </si>
+  <si>
     <t>r/o</t>
   </si>
   <si>
-    <t xml:space="preserve"> יש לנו שם מכתב שחרור?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>אנחנו רוצים ללכת.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>כבר, כבר תשבי.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>אנחנו כבר כל כך הרבה.</t>
-  </si>
-  <si>
-    <t>נעים מאוד דוקטור דוק</t>
-  </si>
-  <si>
-    <t>מה שמך?</t>
-  </si>
-  <si>
-    <t>איך?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>דוק, שלום.</t>
-  </si>
-  <si>
-    <t>אה יעל.</t>
-  </si>
-  <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>אימא של יואב.</t>
-  </si>
-  <si>
-    <t>יואב.</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אנחנו רוצים אההה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אנחנו כבר הרבה שעות פה </t>
-  </si>
-  <si>
-    <t>הילד כבר נראה בסדר</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>(לא ברור)</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוקי קודם כל איך את מרגישה </t>
-  </si>
-  <si>
-    <t>הכול בסדר?</t>
-  </si>
-  <si>
-    <t>בסדר,</t>
-  </si>
-  <si>
-    <t>כן אנחנו רוצים ללכת כבר מפה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (לא ברור) לשכב פה על המיטה (לא ברור).</t>
-  </si>
-  <si>
-    <t>קודם כל זה ייקח קצת זמן, ייקח יותר זמן</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה כן? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">למה הוא כבר בסדר גמור </t>
-  </si>
-  <si>
-    <t>תביא לי אנטיביוטיקה.</t>
-  </si>
-  <si>
-    <t>?service</t>
-  </si>
-  <si>
-    <t>נכון הוא מרגיש יותר טוב</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> וזה טוב</t>
-  </si>
-  <si>
     <t xml:space="preserve"> הסיבה שבגללו הגעתם </t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>gives-l/s</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
   </si>
   <si>
@@ -254,9 +257,6 @@
   </si>
   <si>
     <t>מתמודדים איתה, קשה להתמודד אתה.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>זה קשה זה נכון.</t>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -973,7 +973,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1166,7 +1166,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1351,7 +1351,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -1362,10 +1362,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -1376,7 +1376,7 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1390,10 +1390,10 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1404,10 +1404,10 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -1418,10 +1418,10 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -1432,10 +1432,10 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -1446,10 +1446,10 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1488,10 +1488,10 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -1502,10 +1502,10 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -1516,10 +1516,10 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -1530,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1544,10 +1544,10 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -1558,7 +1558,7 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1586,7 +1586,7 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1600,10 +1600,10 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -1614,10 +1614,10 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -1642,10 +1642,10 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -1659,7 +1659,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1743,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -1754,10 +1754,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1771,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -1782,7 +1782,7 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1799,7 +1799,7 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1810,7 +1810,7 @@
         <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
@@ -1824,7 +1824,7 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
         <v>36</v>
-      </c>
-      <c r="B70" t="s">
-        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -1855,7 +1855,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -1866,7 +1866,7 @@
         <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1880,10 +1880,10 @@
         <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -1925,7 +1925,7 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1995,7 +1995,7 @@
         <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -2006,10 +2006,10 @@
         <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -2020,7 +2020,7 @@
         <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -2034,10 +2034,10 @@
         <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -2048,10 +2048,10 @@
         <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2065,7 +2065,7 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -2090,10 +2090,10 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2104,7 +2104,7 @@
         <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2135,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2149,7 +2149,7 @@
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
         <v>36</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2174,10 +2174,10 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -2188,7 +2188,7 @@
         <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2202,7 +2202,7 @@
         <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2216,10 +2216,10 @@
         <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -2230,7 +2230,7 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2244,7 +2244,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2272,10 +2272,10 @@
         <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -2300,7 +2300,7 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2314,10 +2314,10 @@
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2328,7 +2328,7 @@
         <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -2342,10 +2342,10 @@
         <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -2356,10 +2356,10 @@
         <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -2370,10 +2370,10 @@
         <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
         <v>36</v>
-      </c>
-      <c r="B109" t="s">
-        <v>37</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -2401,7 +2401,7 @@
         <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" t="s">
         <v>36</v>
-      </c>
-      <c r="B111" t="s">
-        <v>37</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -2429,7 +2429,7 @@
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -2454,10 +2454,10 @@
         <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -2468,10 +2468,10 @@
         <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -2485,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -2496,10 +2496,10 @@
         <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -2580,7 +2580,7 @@
         <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2594,10 +2594,10 @@
         <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -2608,10 +2608,10 @@
         <v>145</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -2622,7 +2622,7 @@
         <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2639,7 +2639,7 @@
         <v>31</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -2667,7 +2667,7 @@
         <v>22</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -2692,7 +2692,7 @@
         <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
@@ -2762,10 +2762,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -2776,7 +2776,7 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
@@ -2787,13 +2787,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B138" t="s">
         <v>36</v>
       </c>
-      <c r="B138" t="s">
-        <v>37</v>
-      </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -2863,7 +2863,7 @@
         <v>131</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -2888,7 +2888,7 @@
         <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -2905,7 +2905,7 @@
         <v>93</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -2930,7 +2930,7 @@
         <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
@@ -2958,10 +2958,10 @@
         <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
